--- a/SCLPsolver/results_long_summary.xlsx
+++ b/SCLPsolver/results_long_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataD\Work\CERBERO\CLP\SCLPsolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7649D20-8F46-422B-9B28-EDF1D8AA9F98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9EDDF-4EB7-4C41-B9AA-AC708826EB5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1061,11 +1061,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,13 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -16774,7 +16775,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16790,13 +16791,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -16811,9 +16812,9 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="5">
         <v>1</v>
       </c>
@@ -16832,440 +16833,440 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>100</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>-53.758757958235527</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>8.7487007867620328E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>-4.5243300160949715</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>0.61702362939757549</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>-0.21524074491030953</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>5.8815974625469982</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>-5.4427088412661081E-3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>73.552398305505562</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>100</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>10000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>-5474.8760050030178</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>8.4494421496703956E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>-546.58760048070155</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>0.71784241847180408</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>-53.758760079902018</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>5.557434068102137</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>-4.5243301899678201</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>64.948364883374097</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>100</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>-53.977969710090065</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>8.0410208812625797E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>-4.5823908079926676</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>0.47471821303204004</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>-0.22497574044632973</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>5.3086363447650236</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>-6.094102073804274E-3</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>72.948885558817096</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>20</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>200</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>-5496.7965575732642</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>8.5743552984888116E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>-548.77965572043661</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>0.45445209203357112</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>-53.977965591689141</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>4.6450576246218551</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>-4.5823903570379745</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>62.999000901913973</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>40</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>400</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>-47.950894979133643</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>3.0955725032759403E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>-4.0103511205200117</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>0.35751943151345489</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>-0.18905915092467554</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>4.6922110648218194</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>-4.9261266175984622E-3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>68.837581768309036</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>40</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>400</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>10000</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>-4894.0795870356551</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>2.683940470180456E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>-488.50795878122545</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>0.2846425304316727</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>-47.950795877640644</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>3.5804392568156231</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>-4.0103411110117451</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>44.740208553323448</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>80</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>800</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>100</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>-46.679862110846081</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>9.1349853536801216E-3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>-3.9322858968588044</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>0.1470276819058059</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>-0.18805128347415029</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>1.8756463598820432</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>80</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>800</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>10000</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>-4757.084759380431</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>8.9390826659886315E-3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>-474.89847625074242</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>0.14176774734986691</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>-46.679848070198048</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>1.6723911281979837</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>100</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>1000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>100</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>-50.114340794331511</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>8.9572577662588131E-3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>-4.2070641516124114</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>0.1468144878293593</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>-0.20605308043268239</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>1.6974514900828077</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>100</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>1000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>10000</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>-5110.4373431610929</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>8.8955975930316272E-3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>-510.14373468180702</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>0.14303085697712872</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>-50.114373951176155</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>1.5751216394864542</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>200</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>2000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>100</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>-47.730159438369618</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>3.6791615215880495E-3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>-4.0001780451307019</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>7.7360020298117033E-2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>-0.19485411751471474</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>1.1891526300502504</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>200</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>2000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>10000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>-4872.0172041862015</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>3.6344354154324516E-3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>-486.3017267544119</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>7.5484931258110399E-2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>-47.730182076944757</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>0.97777755532232447</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SCLPsolver/results_long_summary.xlsx
+++ b/SCLPsolver/results_long_summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataD\Work\CERBERO\CLP\SCLPsolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9EDDF-4EB7-4C41-B9AA-AC708826EB5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE0AEC9-5F20-4864-B9A6-EC2C39080776}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_long2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="177">
   <si>
     <t>file</t>
   </si>
@@ -558,11 +559,17 @@
   <si>
     <t>Time horizon</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1061,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1074,13 +1081,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -16774,8 +16785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEECB14-D94F-4480-9808-7A7CA7A60F81}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16791,51 +16802,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
         <v>100</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
         <v>1000</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>171</v>
       </c>
@@ -16871,28 +16882,28 @@
       <c r="C4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>-53.758757958235527</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>8.7487007867620328E-2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>-4.5243300160949715</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>0.61702362939757549</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>-0.21524074491030953</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>5.8815974625469982</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>-5.4427088412661081E-3</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>73.552398305505562</v>
       </c>
     </row>
@@ -16906,28 +16917,28 @@
       <c r="C5" s="4">
         <v>10000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>-5474.8760050030178</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>8.4494421496703956E-2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>-546.58760048070155</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>0.71784241847180408</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>-53.758760079902018</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>5.557434068102137</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>-4.5243301899678201</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>64.948364883374097</v>
       </c>
     </row>
@@ -16941,28 +16952,28 @@
       <c r="C6" s="4">
         <v>100</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>-53.977969710090065</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>8.0410208812625797E-2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>-4.5823908079926676</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>0.47471821303204004</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>-0.22497574044632973</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>5.3086363447650236</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>-6.094102073804274E-3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>72.948885558817096</v>
       </c>
     </row>
@@ -16976,28 +16987,28 @@
       <c r="C7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>-5496.7965575732642</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>8.5743552984888116E-2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>-548.77965572043661</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>0.45445209203357112</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>-53.977965591689141</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>4.6450576246218551</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>-4.5823903570379745</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>62.999000901913973</v>
       </c>
     </row>
@@ -17011,28 +17022,28 @@
       <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>-47.950894979133643</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>3.0955725032759403E-2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>-4.0103511205200117</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>0.35751943151345489</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>-0.18905915092467554</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>4.6922110648218194</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>-4.9261266175984622E-3</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>68.837581768309036</v>
       </c>
     </row>
@@ -17046,28 +17057,28 @@
       <c r="C9" s="4">
         <v>10000</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>-4894.0795870356551</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>2.683940470180456E-2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>-488.50795878122545</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>0.2846425304316727</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>-47.950795877640644</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>3.5804392568156231</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>-4.0103411110117451</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>44.740208553323448</v>
       </c>
     </row>
@@ -17081,26 +17092,26 @@
       <c r="C10" s="4">
         <v>100</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>-46.679862110846081</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>9.1349853536801216E-3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>-3.9322858968588044</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>0.1470276819058059</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>-0.18805128347415029</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>1.8756463598820432</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -17112,26 +17123,26 @@
       <c r="C11" s="4">
         <v>10000</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>-4757.084759380431</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>8.9390826659886315E-3</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>-474.89847625074242</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>0.14176774734986691</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>-46.679848070198048</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>1.6723911281979837</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -17143,26 +17154,26 @@
       <c r="C12" s="4">
         <v>100</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>-50.114340794331511</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>8.9572577662588131E-3</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>-4.2070641516124114</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>0.1468144878293593</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>-0.20605308043268239</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>1.6974514900828077</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -17174,26 +17185,26 @@
       <c r="C13" s="4">
         <v>10000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>-5110.4373431610929</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>8.8955975930316272E-3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>-510.14373468180702</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>0.14303085697712872</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>-50.114373951176155</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>1.5751216394864542</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -17205,26 +17216,26 @@
       <c r="C14" s="4">
         <v>100</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>-47.730159438369618</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>3.6791615215880495E-3</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>-4.0001780451307019</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>7.7360020298117033E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>-0.19485411751471474</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>1.1891526300502504</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -17236,37 +17247,1100 @@
       <c r="C15" s="4">
         <v>10000</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>-4872.0172041862015</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>3.6344354154324516E-3</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>-486.3017267544119</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>7.5484931258110399E-2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>-47.730182076944757</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>0.97777755532232447</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D1:K1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659DD33-2222-428A-AB1C-74097137E9CF}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
+        <v>100</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-53.758757958235527</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8.7487007867620328E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-4.5243300160949715</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.61702362939757549</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-0.21524074491030953</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5.8815974625469982</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-5.4427088412661081E-3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>73.552398305505562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-5474.8760050030178</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.4494421496703956E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-546.58760048070155</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.71784241847180408</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-53.758760079902018</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5.557434068102137</v>
+      </c>
+      <c r="J5" s="6">
+        <v>-4.5243301899678201</v>
+      </c>
+      <c r="K5" s="6">
+        <v>64.948364883374097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>200</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-53.977969710090065</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8.0410208812625797E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-4.5823908079926676</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.47471821303204004</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-0.22497574044632973</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.3086363447650236</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-6.094102073804274E-3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>72.948885558817096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-5496.7965575732642</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8.5743552984888116E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-548.77965572043661</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.45445209203357112</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-53.977965591689141</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4.6450576246218551</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-4.5823903570379745</v>
+      </c>
+      <c r="K7" s="6">
+        <v>62.999000901913973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>400</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-47.950894979133643</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.0955725032759403E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-4.0103511205200117</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35751943151345489</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-0.18905915092467554</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4.6922110648218194</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-4.9261266175984622E-3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>68.837581768309036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>400</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-4894.0795870356551</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.683940470180456E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-488.50795878122545</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.2846425304316727</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-47.950795877640644</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3.5804392568156231</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-4.0103411110117451</v>
+      </c>
+      <c r="K9" s="6">
+        <v>44.740208553323448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4">
+        <v>800</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-46.679862110846081</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9.1349853536801216E-3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-3.9322858968588044</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.1470276819058059</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-0.18805128347415029</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.8756463598820432</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>80</v>
+      </c>
+      <c r="B11" s="4">
+        <v>800</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-4757.084759380431</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8.9390826659886315E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-474.89847625074242</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.14176774734986691</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-46.679848070198048</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.6723911281979837</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-50.114340794331511</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8.9572577662588131E-3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-4.2070641516124114</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.1468144878293593</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-0.20605308043268239</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.6974514900828077</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>100</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-5110.4373431610929</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8.8955975930316272E-3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-510.14373468180702</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.14303085697712872</v>
+      </c>
+      <c r="H13" s="6">
+        <v>-50.114373951176155</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1.5751216394864542</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>200</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-47.730159438369618</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.6791615215880495E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-4.0001780451307019</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7.7360020298117033E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-0.19485411751471474</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1.1891526300502504</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>200</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-4872.0172041862015</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3.6344354154324516E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-486.3017267544119</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7.5484931258110399E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>-47.730182076944757</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.97777755532232447</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>100</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="10">
+        <f>-D4</f>
+        <v>53.758757958235527</v>
+      </c>
+      <c r="E22" s="10">
+        <f>IF(E4&gt;=1,E4,-1/E4)</f>
+        <v>-11.430268612147934</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="E22:K22" si="0">-F4</f>
+        <v>4.5243300160949715</v>
+      </c>
+      <c r="G22" s="10">
+        <f>IF(G4&gt;=1,G4,-1/G4)</f>
+        <v>-1.6206834752444399</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21524074491030953</v>
+      </c>
+      <c r="I22" s="10">
+        <f>IF(I4&gt;=1,I4,-1/I4)</f>
+        <v>5.8815974625469982</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>5.4427088412661081E-3</v>
+      </c>
+      <c r="K22" s="10">
+        <f>IF(K4&gt;=1,K4,-1/K4)</f>
+        <v>73.552398305505562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" ref="D23:K23" si="1">-D5</f>
+        <v>5474.8760050030178</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" ref="E23:G33" si="2">IF(E5&gt;=1,E5,-1/E5)</f>
+        <v>-11.835100853835765</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>546.58760048070155</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.393063399804199</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>53.758760079902018</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" ref="I23" si="3">IF(I5&gt;=1,I5,-1/I5)</f>
+        <v>5.557434068102137</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="1"/>
+        <v>4.5243301899678201</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" ref="K23" si="4">IF(K5&gt;=1,K5,-1/K5)</f>
+        <v>64.948364883374097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>200</v>
+      </c>
+      <c r="C24" s="4">
+        <v>100</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24:K24" si="5">-D6</f>
+        <v>53.977969710090065</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="2"/>
+        <v>-12.436231851234574</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="5"/>
+        <v>4.5823908079926676</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.1065128165464073</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="5"/>
+        <v>0.22497574044632973</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" ref="I24" si="6">IF(I6&gt;=1,I6,-1/I6)</f>
+        <v>5.3086363447650236</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="5"/>
+        <v>6.094102073804274E-3</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" ref="K24" si="7">IF(K6&gt;=1,K6,-1/K6)</f>
+        <v>72.948885558817096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>200</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" ref="D25:K25" si="8">-D7</f>
+        <v>5496.7965575732642</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="2"/>
+        <v>-11.662684425687901</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="8"/>
+        <v>548.77965572043661</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.2004519673904999</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="8"/>
+        <v>53.977965591689141</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" ref="I25" si="9">IF(I7&gt;=1,I7,-1/I7)</f>
+        <v>4.6450576246218551</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="8"/>
+        <v>4.5823903570379745</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" ref="K25" si="10">IF(K7&gt;=1,K7,-1/K7)</f>
+        <v>62.999000901913973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>400</v>
+      </c>
+      <c r="C26" s="4">
+        <v>100</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26:K26" si="11">-D8</f>
+        <v>47.950894979133643</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="2"/>
+        <v>-32.304202177197709</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="11"/>
+        <v>4.0103511205200117</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.7970507666304734</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="11"/>
+        <v>0.18905915092467554</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" ref="I26" si="12">IF(I8&gt;=1,I8,-1/I8)</f>
+        <v>4.6922110648218194</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="11"/>
+        <v>4.9261266175984622E-3</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" ref="K26" si="13">IF(K8&gt;=1,K8,-1/K8)</f>
+        <v>68.837581768309036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4">
+        <v>400</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:K27" si="14">-D9</f>
+        <v>4894.0795870356551</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="2"/>
+        <v>-37.258650521885997</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="14"/>
+        <v>488.50795878122545</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.5131784364179759</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="14"/>
+        <v>47.950795877640644</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27" si="15">IF(I9&gt;=1,I9,-1/I9)</f>
+        <v>3.5804392568156231</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="14"/>
+        <v>4.0103411110117451</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" ref="K27" si="16">IF(K9&gt;=1,K9,-1/K9)</f>
+        <v>44.740208553323448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>80</v>
+      </c>
+      <c r="B28" s="4">
+        <v>800</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:K28" si="17">-D10</f>
+        <v>46.679862110846081</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="2"/>
+        <v>-109.46925050045536</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="17"/>
+        <v>3.9322858968588044</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.8014402936765039</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="17"/>
+        <v>0.18805128347415029</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" ref="I28" si="18">IF(I10&gt;=1,I10,-1/I10)</f>
+        <v>1.8756463598820432</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4">
+        <v>800</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" ref="D29:K29" si="19">-D11</f>
+        <v>4757.084759380431</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="2"/>
+        <v>-111.8683020803459</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="19"/>
+        <v>474.89847625074242</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="2"/>
+        <v>-7.0537905743265572</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="19"/>
+        <v>46.679848070198048</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" ref="I29" si="20">IF(I11&gt;=1,I11,-1/I11)</f>
+        <v>1.6723911281979837</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>100</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" ref="D30:K30" si="21">-D12</f>
+        <v>50.114340794331511</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="2"/>
+        <v>-111.6413110011091</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="21"/>
+        <v>4.2070641516124114</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.8113168855807196</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="21"/>
+        <v>0.20605308043268239</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" ref="I30" si="22">IF(I12&gt;=1,I12,-1/I12)</f>
+        <v>1.6974514900828077</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>100</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" ref="D31:K31" si="23">-D13</f>
+        <v>5110.4373431610929</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="2"/>
+        <v>-112.41515699668685</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="23"/>
+        <v>510.14373468180702</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.9914983461219453</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="23"/>
+        <v>50.114373951176155</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" ref="I31" si="24">IF(I13&gt;=1,I13,-1/I13)</f>
+        <v>1.5751216394864542</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>200</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>100</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" ref="D32:K32" si="25">-D14</f>
+        <v>47.730159438369618</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="2"/>
+        <v>-271.80105959804843</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="25"/>
+        <v>4.0001780451307019</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="2"/>
+        <v>-12.9265736506579</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="25"/>
+        <v>0.19485411751471474</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" ref="I32" si="26">IF(I14&gt;=1,I14,-1/I14)</f>
+        <v>1.1891526300502504</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>200</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" ref="D33:K33" si="27">-D15</f>
+        <v>4872.0172041862015</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="2"/>
+        <v>-275.14589907247336</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="27"/>
+        <v>486.3017267544119</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="2"/>
+        <v>-13.247677163282255</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="27"/>
+        <v>47.730182076944757</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" ref="I33" si="28">IF(I15&gt;=1,I15,-1/I15)</f>
+        <v>-1.0227275054092952</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
